--- a/results/metric_df/BPL_metrics.xlsx
+++ b/results/metric_df/BPL_metrics.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,35 +451,45 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>sum_SASA</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>max_SASA</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>flexibility</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Q</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>theta</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>conformation</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>monosaccharides</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>motifs</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>class</t>
         </is>
@@ -488,124 +498,138 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Fuc(a1-2)[Gal(a1-3)]Gal</t>
+          <t>Fuc(a1-3)[Gal(b1-4)]Glc</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.3296603422847126</v>
+        <v>0.3787898074253119</v>
       </c>
       <c r="C2" t="n">
-        <v>2.100868155708118</v>
+        <v>2.167758946007369</v>
       </c>
       <c r="D2" t="n">
-        <v>1.411387432685302</v>
+        <v>2.167758946007369</v>
       </c>
       <c r="E2" t="n">
-        <v>0.418</v>
+        <v>2.167758946007369</v>
       </c>
       <c r="F2" t="n">
-        <v>8.065</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>['4C1', '4C1']</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>['Gal(a1-3)', 'Gal(a1-1)']</t>
-        </is>
+        <v>1.107966666666667</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.419</v>
+      </c>
+      <c r="H2" t="n">
+        <v>8.32</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>['Gal']</t>
+          <t>['4C1']</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>O</t>
-        </is>
-      </c>
+          <t>['Gal(b1-4)']</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>['Gal(b1-?)']</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Fuc(a1-2)[Gal(a1-3)]Gal(b1-3)GalNAc(b1-3)Gal(a1-4)Gal(b1-4)Glc</t>
+          <t>Gal(b1-3)GalNAc</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.4004044536941499</v>
+        <v>0.3792409696980445</v>
       </c>
       <c r="C3" t="n">
-        <v>2.380684266409709</v>
+        <v>2.576634855442119</v>
       </c>
       <c r="D3" t="n">
-        <v>16.560675</v>
+        <v>2.576634855442119</v>
       </c>
       <c r="E3" t="n">
-        <v>0.469</v>
+        <v>2.576634855442119</v>
       </c>
       <c r="F3" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>['4C1']</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>['Gal(a1-3)']</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.444</v>
+      </c>
+      <c r="H3" t="n">
+        <v>7.41</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>['Gal']</t>
+          <t>['4C1']</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>lipid/free</t>
+          <t>['Gal(b1-3)']</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>['Gal(b1-?)']</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Fuc(a1-2)[Gal(a1-3)]Gal(b1-4)Glc</t>
+          <t>Gal(b1-3)GalNAc(b1-3)Gal(a1-3)Gal(b1-4)Glc</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.6622126708781904</v>
+        <v>2.05447595820747</v>
       </c>
       <c r="C4" t="n">
-        <v>2.42187151155289</v>
+        <v>2.645530740371229</v>
       </c>
       <c r="D4" t="n">
-        <v>2.917820000000001</v>
+        <v>2.645530740371229</v>
       </c>
       <c r="E4" t="n">
-        <v>0.462</v>
+        <v>2.645530740371229</v>
       </c>
       <c r="F4" t="n">
-        <v>5.56</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>['4C1']</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>['Gal(a1-3)']</t>
-        </is>
+        <v>3.722105543887722</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.463</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.06</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>['Gal']</t>
+          <t>['4C1']</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
+        <is>
+          <t>['Gal(b1-3)']</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>['Gal(b1-?)']</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
         <is>
           <t>lipid/free</t>
         </is>
@@ -614,40 +638,46 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Fuc(a1-2)[Gal(a1-3)]Gal(b1-4)GlcNAc(b1-3)Gal(b1-4)Glc</t>
+          <t>Gal(b1-3)GalNAc(b1-3)Gal(a1-4)Gal(b1-4)Glc</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.308943629275784</v>
+        <v>-0.3717087432736757</v>
       </c>
       <c r="C5" t="n">
-        <v>2.451470653075527</v>
+        <v>2.597460735209333</v>
       </c>
       <c r="D5" t="n">
-        <v>3.957300000000002</v>
+        <v>2.597460735209333</v>
       </c>
       <c r="E5" t="n">
-        <v>0.487</v>
+        <v>2.597460735209333</v>
       </c>
       <c r="F5" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>['4C1']</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>['Gal(a1-3)']</t>
-        </is>
+        <v>9.479540000000002</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.474</v>
+      </c>
+      <c r="H5" t="n">
+        <v>13.09</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>['Gal']</t>
+          <t>['4C1']</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
+        <is>
+          <t>['Gal(b1-3)']</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>['Gal(b1-?)']</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
         <is>
           <t>lipid/free</t>
         </is>
@@ -656,40 +686,46 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Fuc(a1-2)[GalNAc(a1-3)]Gal(b1-3)GalNAc(b1-3)Gal(a1-4)Gal(b1-4)Glc</t>
+          <t>Gal(b1-3)GalNAc(b1-4)Gal(b1-4)Glc</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.4013127607404702</v>
+        <v>0.0596332643698146</v>
       </c>
       <c r="C6" t="n">
-        <v>2.973940888302121</v>
+        <v>2.595288970498892</v>
       </c>
       <c r="D6" t="n">
-        <v>14.89044904490449</v>
+        <v>2.595288970498892</v>
       </c>
       <c r="E6" t="n">
-        <v>0.423</v>
+        <v>2.595288970498892</v>
       </c>
       <c r="F6" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>['4C1']</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>['GalNAc(a1-3)']</t>
-        </is>
+        <v>4.194894796234664</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="H6" t="n">
+        <v>4.53</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>['GalNAc']</t>
+          <t>['4C1']</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
+        <is>
+          <t>['Gal(b1-3)']</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>['Gal(b1-?)']</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
         <is>
           <t>lipid/free</t>
         </is>
@@ -698,288 +734,334 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Fuc(a1-3)[Gal(b1-4)]Glc</t>
+          <t>Gal(b1-3)GalNAc(b1-4)[Neu5Ac(a2-3)]Gal(b1-4)Glc</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.3787898074253119</v>
+        <v>0.0591257068129905</v>
       </c>
       <c r="C7" t="n">
-        <v>2.167758946007369</v>
+        <v>2.528652387176547</v>
       </c>
       <c r="D7" t="n">
-        <v>1.107966666666667</v>
+        <v>2.528652387176547</v>
       </c>
       <c r="E7" t="n">
-        <v>0.419</v>
+        <v>2.528652387176547</v>
       </c>
       <c r="F7" t="n">
-        <v>8.32</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>['4C1']</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>['Gal(b1-4)']</t>
-        </is>
+        <v>5.276533333333333</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.489</v>
+      </c>
+      <c r="H7" t="n">
+        <v>9.99</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>['Gal']</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr"/>
+          <t>['4C1']</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>['Gal(b1-3)']</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>['Gal(b1-?)']</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>lipid/free</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Gal(a1-3)Gal(b1-4)GlcNAc(b1-3)Gal(b1-4)Glc</t>
+          <t>Gal(b1-3)[Fuc(a1-4)]GlcNAc</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.370733732827363</v>
+        <v>6.050338674991919</v>
       </c>
       <c r="C8" t="n">
-        <v>2.622744203747157</v>
+        <v>2.303706074153936</v>
       </c>
       <c r="D8" t="n">
-        <v>10.3916</v>
+        <v>2.303706074153936</v>
       </c>
       <c r="E8" t="n">
-        <v>0.4</v>
+        <v>2.303706074153936</v>
       </c>
       <c r="F8" t="n">
-        <v>14.59</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>['4C1']</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>['Gal(a1-3)']</t>
-        </is>
+        <v>1.876671000433376</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H8" t="n">
+        <v>7.15</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>['Gal']</t>
+          <t>['4C1']</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>lipid/free</t>
+          <t>['Gal(b1-3)']</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>['Gal(b1-?)']</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Gal(a1-4)Gal(b1-4)Glc</t>
+          <t>Gal(b1-3)[Fuc(a1-4)]GlcNAc(b1-3)Gal</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.514315392601091</v>
+        <v>0.5739080885069089</v>
       </c>
       <c r="C9" t="n">
-        <v>2.561983711449383</v>
+        <v>2.114573297613266</v>
       </c>
       <c r="D9" t="n">
-        <v>0.5451333333333336</v>
+        <v>2.114573297613266</v>
       </c>
       <c r="E9" t="n">
-        <v>0.439</v>
+        <v>2.114573297613266</v>
       </c>
       <c r="F9" t="n">
-        <v>7.22</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>['4C1']</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>['Gal(a1-4)']</t>
-        </is>
+        <v>2.58618</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.489</v>
+      </c>
+      <c r="H9" t="n">
+        <v>8.52</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>['Gal']</t>
+          <t>['4C1']</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>lipid/free</t>
+          <t>['Gal(b1-3)']</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>['Gal(b1-?)']</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Gal(b1-3)GalNAc</t>
+          <t>Gal(b1-3)[Fuc(a1-4)]GlcNAc(b1-3)Gal(b1-4)[Fuc(a1-3)]Glc</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.3792409696980445</v>
+        <v>0.3659015794441557</v>
       </c>
       <c r="C10" t="n">
-        <v>2.80914078282125</v>
+        <v>2.104113643549208</v>
       </c>
       <c r="D10" t="n">
-        <v>0.2655432209887656</v>
+        <v>2.104113643549208</v>
       </c>
       <c r="E10" t="n">
-        <v>0.4375</v>
+        <v>2.104113643549208</v>
       </c>
       <c r="F10" t="n">
-        <v>4.95</v>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>['4C1', '4C1']</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>['Gal(b1-3)', 'GalNAc(a1-1)']</t>
-        </is>
+        <v>5.473739999999999</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.454</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2.44</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>['Gal', 'GalNAc']</t>
+          <t>['4C1']</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>['Gal(b1-3)']</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>['Gal(b1-?)']</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>lipid/free</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Gal(b1-3)GalNAc(b1-3)Gal(a1-3)Gal(b1-4)Glc</t>
+          <t>Gal(b1-3)[GlcNAc(b1-6)]GalNAc</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.05447595820747</v>
+        <v>0.0463502694000174</v>
       </c>
       <c r="C11" t="n">
-        <v>2.645530740371229</v>
+        <v>2.340246256923699</v>
       </c>
       <c r="D11" t="n">
-        <v>3.722105543887722</v>
+        <v>2.340246256923699</v>
       </c>
       <c r="E11" t="n">
-        <v>0.463</v>
+        <v>2.340246256923699</v>
       </c>
       <c r="F11" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>['4C1']</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
+        <v>3.36576</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.479</v>
+      </c>
+      <c r="H11" t="n">
+        <v>17.31</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>['4C1']</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
         <is>
           <t>['Gal(b1-3)']</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>['Gal']</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>lipid/free</t>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>['Gal(b1-?)']</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Gal(b1-3)GalNAc(b1-3)Gal(a1-4)Gal(b1-4)Glc</t>
+          <t>Gal(b1-3)[Neu5Ac(a2-6)]GalNAc</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.3717087432736757</v>
+        <v>2.043581680619997</v>
       </c>
       <c r="C12" t="n">
-        <v>2.597460735209333</v>
+        <v>2.021395607071452</v>
       </c>
       <c r="D12" t="n">
-        <v>9.479540000000002</v>
+        <v>2.021395607071452</v>
       </c>
       <c r="E12" t="n">
-        <v>0.474</v>
+        <v>2.021395607071452</v>
       </c>
       <c r="F12" t="n">
-        <v>13.09</v>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>['4C1']</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
+        <v>3.212600000000001</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.507</v>
+      </c>
+      <c r="H12" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>['4C1']</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
         <is>
           <t>['Gal(b1-3)']</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>['Gal']</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>lipid/free</t>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>['Gal(b1-?)']</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Gal(b1-3)GalNAc(b1-4)Gal(b1-4)Glc</t>
+          <t>Gal(b1-4)Glc</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.0596332643698146</v>
+        <v>-0.7472117974015817</v>
       </c>
       <c r="C13" t="n">
-        <v>2.595288970498892</v>
+        <v>2.557480171367176</v>
       </c>
       <c r="D13" t="n">
-        <v>4.194894796234664</v>
+        <v>2.557480171367176</v>
       </c>
       <c r="E13" t="n">
-        <v>0.475</v>
+        <v>2.557480171367176</v>
       </c>
       <c r="F13" t="n">
-        <v>4.53</v>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>['4C1']</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>['Gal(b1-3)']</t>
-        </is>
+        <v>1.32265</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.424</v>
+      </c>
+      <c r="H13" t="n">
+        <v>5.58</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>['Gal']</t>
+          <t>['4C1']</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)']</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>['Gal(b1-?)']</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
         <is>
           <t>lipid/free</t>
         </is>
@@ -988,40 +1070,46 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Gal(b1-3)GalNAc(b1-4)[Neu5Ac(a2-3)]Gal(b1-4)Glc</t>
+          <t>Gal(b1-4)GlcNAc(b1-3)Gal(b1-4)Glc</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.0591257068129905</v>
+        <v>0.739520889437837</v>
       </c>
       <c r="C14" t="n">
-        <v>2.528652387176547</v>
+        <v>2.649859652548547</v>
       </c>
       <c r="D14" t="n">
-        <v>5.276533333333333</v>
+        <v>2.649859652548547</v>
       </c>
       <c r="E14" t="n">
-        <v>0.489</v>
+        <v>2.649859652548547</v>
       </c>
       <c r="F14" t="n">
-        <v>9.99</v>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>['4C1']</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>['Gal(b1-3)']</t>
-        </is>
+        <v>2.010798920107987</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="H14" t="n">
+        <v>2.84</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>['Gal']</t>
+          <t>['4C1']</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)']</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>['Gal(b1-?)']</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
         <is>
           <t>lipid/free</t>
         </is>
@@ -1030,124 +1118,142 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Gal(b1-3)[Fuc(a1-4)]GlcNAc</t>
+          <t>Gal(b1-4)GlcNAc(b1-3)Gal(b1-4)GlcNAc(b1-3)Gal(b1-4)Glc</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>6.050338674991919</v>
+        <v>0.1155850084535823</v>
       </c>
       <c r="C15" t="n">
-        <v>2.303706074153936</v>
+        <v>2.631575366162602</v>
       </c>
       <c r="D15" t="n">
-        <v>1.876671000433376</v>
+        <v>2.631575366162602</v>
       </c>
       <c r="E15" t="n">
-        <v>0.5</v>
+        <v>2.631575366162602</v>
       </c>
       <c r="F15" t="n">
-        <v>7.15</v>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>['4C1']</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>['Gal(b1-3)']</t>
-        </is>
+        <v>9.4785</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.439</v>
+      </c>
+      <c r="H15" t="n">
+        <v>6.6</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>['Gal']</t>
+          <t>['4C1']</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>['Gal(b1-4)']</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>['Gal(b1-?)']</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>lipid/free</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Gal(b1-3)[Fuc(a1-4)]GlcNAc(b1-3)Gal</t>
+          <t>GalNAc(b1-3)Gal(a1-3)Gal(b1-4)Glc</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.5739080885069089</v>
+        <v>0.4203306508574508</v>
       </c>
       <c r="C16" t="n">
-        <v>2.134908862946805</v>
+        <v>3.34788678340402</v>
       </c>
       <c r="D16" t="n">
-        <v>1.8192</v>
+        <v>3.34788678340402</v>
       </c>
       <c r="E16" t="n">
-        <v>0.5155000000000001</v>
+        <v>3.34788678340402</v>
       </c>
       <c r="F16" t="n">
-        <v>5.029999999999999</v>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>['4C1', '4C1']</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>['Gal(b1-3)', 'Gal(a1-1)']</t>
-        </is>
+        <v>6.098600000000001</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.443</v>
+      </c>
+      <c r="H16" t="n">
+        <v>4.79</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>['Gal']</t>
+          <t>['4C1']</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>['GalNAc(b1-3)']</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>['GalNAc(b1-?)']</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>lipid/free</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Gal(b1-3)[Fuc(a1-4)]GlcNAc(b1-3)Gal(b1-4)[Fuc(a1-3)]Glc</t>
+          <t>GalNAc(b1-3)Gal(a1-4)Gal(b1-4)Glc</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.3659015794441557</v>
+        <v>2.02131295011662</v>
       </c>
       <c r="C17" t="n">
-        <v>2.104113643549208</v>
+        <v>3.305672870331619</v>
       </c>
       <c r="D17" t="n">
-        <v>5.473739999999999</v>
+        <v>3.305672870331619</v>
       </c>
       <c r="E17" t="n">
-        <v>0.454</v>
+        <v>3.305672870331619</v>
       </c>
       <c r="F17" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>['4C1']</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>['Gal(b1-3)']</t>
-        </is>
+        <v>6.183000000000001</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1.93</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>['Gal']</t>
+          <t>['4C1']</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
+        <is>
+          <t>['GalNAc(b1-3)']</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>['GalNAc(b1-?)']</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
         <is>
           <t>lipid/free</t>
         </is>
@@ -1156,124 +1262,142 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Gal(b1-3)[GlcNAc(b1-6)]GalNAc</t>
+          <t>GalNAc(b1-4)Gal(b1-4)Glc</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.0463502694000174</v>
+        <v>-0.7398371612234926</v>
       </c>
       <c r="C18" t="n">
-        <v>2.303025462805305</v>
+        <v>3.100918634996691</v>
       </c>
       <c r="D18" t="n">
-        <v>2.15073</v>
+        <v>3.100918634996691</v>
       </c>
       <c r="E18" t="n">
-        <v>0.458</v>
+        <v>3.100918634996691</v>
       </c>
       <c r="F18" t="n">
-        <v>14.845</v>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>['4C1', '4C1']</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>['Gal(b1-3)', 'GalNAc(a1-1)']</t>
-        </is>
+        <v>3.38974</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.427</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1.25</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>['Gal', 'GalNAc']</t>
+          <t>['4C1']</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>['GalNAc(b1-4)']</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>['GalNAc(b1-?)']</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>lipid/free</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Gal(b1-3)[Neu5Ac(a2-6)]GalNAc</t>
+          <t>Neu5Ac(a2-3)[GalNAc(b1-4)]Gal(b1-4)Glc</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2.043581680619997</v>
+        <v>0.1163745424308643</v>
       </c>
       <c r="C19" t="n">
-        <v>2.137772025223793</v>
+        <v>2.71534416929608</v>
       </c>
       <c r="D19" t="n">
-        <v>1.94865</v>
+        <v>2.71534416929608</v>
       </c>
       <c r="E19" t="n">
-        <v>0.4805</v>
+        <v>2.71534416929608</v>
       </c>
       <c r="F19" t="n">
-        <v>6.46</v>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>['4C1', '4C1']</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>['Gal(b1-3)', 'GalNAc(a1-1)']</t>
-        </is>
+        <v>3.482264893155983</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.481</v>
+      </c>
+      <c r="H19" t="n">
+        <v>4.76</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>['Gal', 'GalNAc']</t>
+          <t>['4C1']</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>['GalNAc(b1-4)']</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>['GalNAc(b1-?)']</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>lipid/free</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Gal(b1-4)Glc</t>
+          <t>Neu5Ac(a2-8)Neu5Ac(a2-3)[GalNAc(b1-4)]Gal(b1-4)Glc</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.7472117974015817</v>
+        <v>0.2411098632954642</v>
       </c>
       <c r="C20" t="n">
-        <v>2.557480171367176</v>
+        <v>2.664576180536996</v>
       </c>
       <c r="D20" t="n">
-        <v>1.32265</v>
+        <v>2.664576180536996</v>
       </c>
       <c r="E20" t="n">
-        <v>0.424</v>
+        <v>2.664576180536996</v>
       </c>
       <c r="F20" t="n">
-        <v>5.58</v>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>['4C1']</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>['Gal(b1-4)']</t>
-        </is>
+        <v>7.274647535246475</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.477</v>
+      </c>
+      <c r="H20" t="n">
+        <v>5.89</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>['Gal']</t>
+          <t>['4C1']</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
+        <is>
+          <t>['GalNAc(b1-4)']</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>['GalNAc(b1-?)']</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
         <is>
           <t>lipid/free</t>
         </is>
@@ -1282,460 +1406,46 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Gal(b1-4)GlcNAc(b1-3)Gal(b1-4)Glc</t>
+          <t>Neu5Ac(a2-8)Neu5Ac(a2-8)Neu5Ac(a2-3)[GalNAc(b1-4)]Gal(b1-4)Glc</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.739520889437837</v>
+        <v>0.1287552128551964</v>
       </c>
       <c r="C21" t="n">
-        <v>2.649859652548547</v>
+        <v>2.671783269639034</v>
       </c>
       <c r="D21" t="n">
-        <v>2.010798920107987</v>
+        <v>2.671783269639034</v>
       </c>
       <c r="E21" t="n">
-        <v>0.52</v>
+        <v>2.671783269639034</v>
       </c>
       <c r="F21" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>['4C1']</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>['Gal(b1-4)']</t>
-        </is>
+        <v>5.64785</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.449</v>
+      </c>
+      <c r="H21" t="n">
+        <v>6.26</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>['Gal']</t>
+          <t>['4C1']</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>lipid/free</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>Gal(b1-4)GlcNAc(b1-3)Gal(b1-4)GlcNAc(b1-3)Gal(b1-4)Glc</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>0.1155850084535823</v>
-      </c>
-      <c r="C22" t="n">
-        <v>2.631575366162602</v>
-      </c>
-      <c r="D22" t="n">
-        <v>9.4785</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0.439</v>
-      </c>
-      <c r="F22" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>['4C1']</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>['Gal(b1-4)']</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>['Gal']</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>lipid/free</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="inlineStr">
-        <is>
-          <t>GalNAc(b1-3)Gal(a1-3)Gal(b1-4)Glc</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>0.4203306508574508</v>
-      </c>
-      <c r="C23" t="n">
-        <v>3.34788678340402</v>
-      </c>
-      <c r="D23" t="n">
-        <v>6.098600000000001</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0.443</v>
-      </c>
-      <c r="F23" t="n">
-        <v>4.79</v>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>['4C1']</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>['GalNAc(b1-3)']</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>['GalNAc']</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>lipid/free</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>GalNAc(b1-3)Gal(a1-4)Gal(b1-4)Glc</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>2.02131295011662</v>
-      </c>
-      <c r="C24" t="n">
-        <v>3.305672870331619</v>
-      </c>
-      <c r="D24" t="n">
-        <v>6.183000000000001</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="F24" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>['4C1']</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>['GalNAc(b1-3)']</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>['GalNAc']</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>lipid/free</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="inlineStr">
-        <is>
-          <t>GalNAc(b1-4)Gal(b1-4)Glc</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>-0.7398371612234926</v>
-      </c>
-      <c r="C25" t="n">
-        <v>3.100918634996691</v>
-      </c>
-      <c r="D25" t="n">
-        <v>3.38974</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0.427</v>
-      </c>
-      <c r="F25" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>['4C1']</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
           <t>['GalNAc(b1-4)']</t>
         </is>
       </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>['GalNAc']</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>lipid/free</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="inlineStr">
-        <is>
-          <t>Neu5Ac(a2-3)Gal</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>-0.2453379591704202</v>
-      </c>
-      <c r="C26" t="n">
-        <v>2.109125584318943</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0.8622750000000001</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0.416</v>
-      </c>
-      <c r="F26" t="n">
-        <v>6.85</v>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>['4C1']</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>['Gal(a1-1)']</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>['Gal']</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="inlineStr">
-        <is>
-          <t>Neu5Ac(a2-3)Gal(b1-3)[Neu5Ac(a2-6)]GalNAc</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>1.353151729743462</v>
-      </c>
-      <c r="C27" t="n">
-        <v>1.965267323824594</v>
-      </c>
-      <c r="D27" t="n">
-        <v>1.712704603793713</v>
-      </c>
-      <c r="E27" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="F27" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>['4C1']</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>['GalNAc(a1-1)']</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>['GalNAc']</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="inlineStr">
-        <is>
-          <t>Neu5Ac(a2-3)Gal(b1-4)[Fuc(a1-3)]GlcNAc(b1-3)Gal</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>-0.0368442080324435</v>
-      </c>
-      <c r="C28" t="n">
-        <v>2.006297624575836</v>
-      </c>
-      <c r="D28" t="n">
-        <v>6</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0.442</v>
-      </c>
-      <c r="F28" t="n">
-        <v>12.63</v>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>['4C1']</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>['Gal(a1-1)']</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>['Gal']</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="inlineStr">
-        <is>
-          <t>Neu5Ac(a2-3)[GalNAc(b1-4)]Gal(b1-4)Glc</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>0.1163745424308643</v>
-      </c>
-      <c r="C29" t="n">
-        <v>2.71534416929608</v>
-      </c>
-      <c r="D29" t="n">
-        <v>3.482264893155983</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0.481</v>
-      </c>
-      <c r="F29" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>['4C1']</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>['GalNAc(b1-4)']</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>['GalNAc']</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>lipid/free</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="inlineStr">
-        <is>
-          <t>Neu5Ac(a2-8)Neu5Ac(a2-3)[GalNAc(b1-4)]Gal(b1-4)Glc</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>0.2411098632954642</v>
-      </c>
-      <c r="C30" t="n">
-        <v>2.664576180536996</v>
-      </c>
-      <c r="D30" t="n">
-        <v>7.274647535246475</v>
-      </c>
-      <c r="E30" t="n">
-        <v>0.477</v>
-      </c>
-      <c r="F30" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>['4C1']</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>['GalNAc(b1-4)']</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>['GalNAc']</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>lipid/free</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="inlineStr">
-        <is>
-          <t>Neu5Ac(a2-8)Neu5Ac(a2-8)Neu5Ac(a2-3)[GalNAc(b1-4)]Gal(b1-4)Glc</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>0.1287552128551964</v>
-      </c>
-      <c r="C31" t="n">
-        <v>2.671783269639034</v>
-      </c>
-      <c r="D31" t="n">
-        <v>5.64785</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0.449</v>
-      </c>
-      <c r="F31" t="n">
-        <v>6.26</v>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>['4C1']</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>['GalNAc(b1-4)']</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>['GalNAc']</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>['GalNAc(b1-?)']</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
         <is>
           <t>lipid/free</t>
         </is>

--- a/results/metric_df/BPL_metrics.xlsx
+++ b/results/metric_df/BPL_metrics.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,17 +446,17 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>SASA</t>
+          <t>monosaccharides</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>sum_SASA</t>
+          <t>motifs</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>max_SASA</t>
+          <t>sasa</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -466,32 +466,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Q</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>theta</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>conformation</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>monosaccharides</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>motifs</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>class</t>
+          <t>has_multi_node_motifs</t>
         </is>
       </c>
     </row>
@@ -504,40 +479,25 @@
       <c r="B2" t="n">
         <v>0.3787898074253119</v>
       </c>
-      <c r="C2" t="n">
-        <v>2.167758946007369</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.167758946007369</v>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)']</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>['Gal(b1-?)']</t>
+        </is>
       </c>
       <c r="E2" t="n">
         <v>2.167758946007369</v>
       </c>
       <c r="F2" t="n">
-        <v>1.107966666666667</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.419</v>
-      </c>
-      <c r="H2" t="n">
-        <v>8.32</v>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>['4C1']</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>['Gal(b1-4)']</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>['Gal(b1-?)']</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr"/>
+        <v>0.3471575717519161</v>
+      </c>
+      <c r="G2" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -548,11 +508,15 @@
       <c r="B3" t="n">
         <v>0.3792409696980445</v>
       </c>
-      <c r="C3" t="n">
-        <v>2.576634855442119</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.576634855442119</v>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>['Gal(b1-3)']</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>['Gal(b1-?)']</t>
+        </is>
       </c>
       <c r="E3" t="n">
         <v>2.576634855442119</v>
@@ -560,31 +524,8 @@
       <c r="F3" t="n">
         <v>0</v>
       </c>
-      <c r="G3" t="n">
-        <v>0.444</v>
-      </c>
-      <c r="H3" t="n">
-        <v>7.41</v>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>['4C1']</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>['Gal(b1-3)']</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>['Gal(b1-?)']</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
+      <c r="G3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -596,43 +537,24 @@
       <c r="B4" t="n">
         <v>2.05447595820747</v>
       </c>
-      <c r="C4" t="n">
-        <v>2.645530740371229</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.645530740371229</v>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>['Gal(b1-3)']</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>['Gal(b1-?)']</t>
+        </is>
       </c>
       <c r="E4" t="n">
         <v>2.645530740371229</v>
       </c>
       <c r="F4" t="n">
-        <v>3.722105543887722</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.463</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>['4C1']</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>['Gal(b1-3)']</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>['Gal(b1-?)']</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>lipid/free</t>
-        </is>
+        <v>0.77749458312248</v>
+      </c>
+      <c r="G4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -644,43 +566,24 @@
       <c r="B5" t="n">
         <v>-0.3717087432736757</v>
       </c>
-      <c r="C5" t="n">
-        <v>2.597460735209333</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2.597460735209333</v>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>['Gal(b1-3)']</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>['Gal(b1-?)']</t>
+        </is>
       </c>
       <c r="E5" t="n">
         <v>2.597460735209333</v>
       </c>
       <c r="F5" t="n">
-        <v>9.479540000000002</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.474</v>
-      </c>
-      <c r="H5" t="n">
-        <v>13.09</v>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>['4C1']</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>['Gal(b1-3)']</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>['Gal(b1-?)']</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>lipid/free</t>
-        </is>
+        <v>1.980140249541296</v>
+      </c>
+      <c r="G5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -692,43 +595,24 @@
       <c r="B6" t="n">
         <v>0.0596332643698146</v>
       </c>
-      <c r="C6" t="n">
-        <v>2.595288970498892</v>
-      </c>
-      <c r="D6" t="n">
-        <v>2.595288970498892</v>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>['Gal(b1-3)']</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>['Gal(b1-?)']</t>
+        </is>
       </c>
       <c r="E6" t="n">
         <v>2.595288970498892</v>
       </c>
       <c r="F6" t="n">
-        <v>4.194894796234664</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.475</v>
-      </c>
-      <c r="H6" t="n">
-        <v>4.53</v>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>['4C1']</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>['Gal(b1-3)']</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>['Gal(b1-?)']</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>lipid/free</t>
-        </is>
+        <v>1.051504190534426</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -740,43 +624,24 @@
       <c r="B7" t="n">
         <v>0.0591257068129905</v>
       </c>
-      <c r="C7" t="n">
-        <v>2.528652387176547</v>
-      </c>
-      <c r="D7" t="n">
-        <v>2.528652387176547</v>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>['Gal(b1-3)']</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>['Gal(b1-?)']</t>
+        </is>
       </c>
       <c r="E7" t="n">
         <v>2.528652387176547</v>
       </c>
       <c r="F7" t="n">
-        <v>5.276533333333333</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.489</v>
-      </c>
-      <c r="H7" t="n">
-        <v>9.99</v>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>['4C1']</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>['Gal(b1-3)']</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>['Gal(b1-?)']</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>lipid/free</t>
-        </is>
+        <v>1.102192303780525</v>
+      </c>
+      <c r="G7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -788,43 +653,24 @@
       <c r="B8" t="n">
         <v>6.050338674991919</v>
       </c>
-      <c r="C8" t="n">
-        <v>2.303706074153936</v>
-      </c>
-      <c r="D8" t="n">
-        <v>2.303706074153936</v>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>['Gal(b1-3)']</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>['Gal(b1-?)']</t>
+        </is>
       </c>
       <c r="E8" t="n">
         <v>2.303706074153936</v>
       </c>
       <c r="F8" t="n">
-        <v>1.876671000433376</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H8" t="n">
-        <v>7.15</v>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>['4C1']</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>['Gal(b1-3)']</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>['Gal(b1-?)']</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
+        <v>0.5880145739832935</v>
+      </c>
+      <c r="G8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -836,43 +682,24 @@
       <c r="B9" t="n">
         <v>0.5739080885069089</v>
       </c>
-      <c r="C9" t="n">
-        <v>2.114573297613266</v>
-      </c>
-      <c r="D9" t="n">
-        <v>2.114573297613266</v>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>['Gal(b1-3)']</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>['Gal(b1-?)']</t>
+        </is>
       </c>
       <c r="E9" t="n">
         <v>2.114573297613266</v>
       </c>
       <c r="F9" t="n">
-        <v>2.58618</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.489</v>
-      </c>
-      <c r="H9" t="n">
-        <v>8.52</v>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>['4C1']</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>['Gal(b1-3)']</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>['Gal(b1-?)']</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
+        <v>0.6482591911285199</v>
+      </c>
+      <c r="G9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -884,43 +711,24 @@
       <c r="B10" t="n">
         <v>0.3659015794441557</v>
       </c>
-      <c r="C10" t="n">
-        <v>2.104113643549208</v>
-      </c>
-      <c r="D10" t="n">
-        <v>2.104113643549208</v>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>['Gal(b1-3)']</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>['Gal(b1-?)']</t>
+        </is>
       </c>
       <c r="E10" t="n">
         <v>2.104113643549208</v>
       </c>
       <c r="F10" t="n">
-        <v>5.473739999999999</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0.454</v>
-      </c>
-      <c r="H10" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>['4C1']</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>['Gal(b1-3)']</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>['Gal(b1-?)']</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>lipid/free</t>
-        </is>
+        <v>0.9800451037127635</v>
+      </c>
+      <c r="G10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -932,43 +740,24 @@
       <c r="B11" t="n">
         <v>0.0463502694000174</v>
       </c>
-      <c r="C11" t="n">
-        <v>2.340246256923699</v>
-      </c>
-      <c r="D11" t="n">
-        <v>2.340246256923699</v>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>['Gal(b1-3)']</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>['Gal(b1-?)']</t>
+        </is>
       </c>
       <c r="E11" t="n">
         <v>2.340246256923699</v>
       </c>
       <c r="F11" t="n">
-        <v>3.36576</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.479</v>
-      </c>
-      <c r="H11" t="n">
-        <v>17.31</v>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>['4C1']</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>['Gal(b1-3)']</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>['Gal(b1-?)']</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
+        <v>1.054588647702754</v>
+      </c>
+      <c r="G11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -980,43 +769,24 @@
       <c r="B12" t="n">
         <v>2.043581680619997</v>
       </c>
-      <c r="C12" t="n">
-        <v>2.021395607071452</v>
-      </c>
-      <c r="D12" t="n">
-        <v>2.021395607071452</v>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>['Gal(b1-3)']</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>['Gal(b1-?)']</t>
+        </is>
       </c>
       <c r="E12" t="n">
         <v>2.021395607071452</v>
       </c>
       <c r="F12" t="n">
-        <v>3.212600000000001</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0.507</v>
-      </c>
-      <c r="H12" t="n">
-        <v>7.41</v>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>['4C1']</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>['Gal(b1-3)']</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>['Gal(b1-?)']</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
+        <v>1.006599249384944</v>
+      </c>
+      <c r="G12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1028,43 +798,24 @@
       <c r="B13" t="n">
         <v>-0.7472117974015817</v>
       </c>
-      <c r="C13" t="n">
-        <v>2.557480171367176</v>
-      </c>
-      <c r="D13" t="n">
-        <v>2.557480171367176</v>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)']</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>['Gal(b1-?)']</t>
+        </is>
       </c>
       <c r="E13" t="n">
         <v>2.557480171367176</v>
       </c>
       <c r="F13" t="n">
-        <v>1.32265</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0.424</v>
-      </c>
-      <c r="H13" t="n">
-        <v>5.58</v>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>['4C1']</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>['Gal(b1-4)']</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>['Gal(b1-?)']</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>lipid/free</t>
-        </is>
+        <v>0.5525653145734487</v>
+      </c>
+      <c r="G13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1076,43 +827,24 @@
       <c r="B14" t="n">
         <v>0.739520889437837</v>
       </c>
-      <c r="C14" t="n">
-        <v>2.649859652548547</v>
-      </c>
-      <c r="D14" t="n">
-        <v>2.649859652548547</v>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)']</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>['Gal(b1-?)']</t>
+        </is>
       </c>
       <c r="E14" t="n">
         <v>2.649859652548547</v>
       </c>
       <c r="F14" t="n">
-        <v>2.010798920107987</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="H14" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>['4C1']</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>['Gal(b1-4)']</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>['Gal(b1-?)']</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>lipid/free</t>
-        </is>
+        <v>0.5040325427740162</v>
+      </c>
+      <c r="G14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1124,43 +856,24 @@
       <c r="B15" t="n">
         <v>0.1155850084535823</v>
       </c>
-      <c r="C15" t="n">
-        <v>2.631575366162602</v>
-      </c>
-      <c r="D15" t="n">
-        <v>2.631575366162602</v>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)']</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>['Gal(b1-?)']</t>
+        </is>
       </c>
       <c r="E15" t="n">
         <v>2.631575366162602</v>
       </c>
       <c r="F15" t="n">
-        <v>9.4785</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0.439</v>
-      </c>
-      <c r="H15" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>['4C1']</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>['Gal(b1-4)']</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>['Gal(b1-?)']</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>lipid/free</t>
-        </is>
+        <v>1.697076864363567</v>
+      </c>
+      <c r="G15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1172,43 +885,24 @@
       <c r="B16" t="n">
         <v>0.4203306508574508</v>
       </c>
-      <c r="C16" t="n">
-        <v>3.34788678340402</v>
-      </c>
-      <c r="D16" t="n">
-        <v>3.34788678340402</v>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>['GalNAc(b1-3)']</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>['GalNAc(b1-?)']</t>
+        </is>
       </c>
       <c r="E16" t="n">
         <v>3.34788678340402</v>
       </c>
       <c r="F16" t="n">
-        <v>6.098600000000001</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0.443</v>
-      </c>
-      <c r="H16" t="n">
-        <v>4.79</v>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>['4C1']</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>['GalNAc(b1-3)']</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>['GalNAc(b1-?)']</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>lipid/free</t>
-        </is>
+        <v>1.528692319566462</v>
+      </c>
+      <c r="G16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1220,43 +914,24 @@
       <c r="B17" t="n">
         <v>2.02131295011662</v>
       </c>
-      <c r="C17" t="n">
-        <v>3.305672870331619</v>
-      </c>
-      <c r="D17" t="n">
-        <v>3.305672870331619</v>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>['GalNAc(b1-3)']</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>['GalNAc(b1-?)']</t>
+        </is>
       </c>
       <c r="E17" t="n">
         <v>3.305672870331619</v>
       </c>
       <c r="F17" t="n">
-        <v>6.183000000000001</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>['4C1']</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>['GalNAc(b1-3)']</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>['GalNAc(b1-?)']</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>lipid/free</t>
-        </is>
+        <v>1.549848262204348</v>
+      </c>
+      <c r="G17" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1268,43 +943,24 @@
       <c r="B18" t="n">
         <v>-0.7398371612234926</v>
       </c>
-      <c r="C18" t="n">
-        <v>3.100918634996691</v>
-      </c>
-      <c r="D18" t="n">
-        <v>3.100918634996691</v>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>['GalNAc(b1-4)']</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>['GalNAc(b1-?)']</t>
+        </is>
       </c>
       <c r="E18" t="n">
         <v>3.100918634996691</v>
       </c>
       <c r="F18" t="n">
-        <v>3.38974</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0.427</v>
-      </c>
-      <c r="H18" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>['4C1']</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>['GalNAc(b1-4)']</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>['GalNAc(b1-?)']</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>lipid/free</t>
-        </is>
+        <v>1.062102265955961</v>
+      </c>
+      <c r="G18" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1316,43 +972,24 @@
       <c r="B19" t="n">
         <v>0.1163745424308643</v>
       </c>
-      <c r="C19" t="n">
-        <v>2.71534416929608</v>
-      </c>
-      <c r="D19" t="n">
-        <v>2.71534416929608</v>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>['GalNAc(b1-4)']</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>['GalNAc(b1-?)']</t>
+        </is>
       </c>
       <c r="E19" t="n">
         <v>2.71534416929608</v>
       </c>
       <c r="F19" t="n">
-        <v>3.482264893155983</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0.481</v>
-      </c>
-      <c r="H19" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>['4C1']</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>['GalNAc(b1-4)']</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>['GalNAc(b1-?)']</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>lipid/free</t>
-        </is>
+        <v>0.8728743640939686</v>
+      </c>
+      <c r="G19" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1364,43 +1001,24 @@
       <c r="B20" t="n">
         <v>0.2411098632954642</v>
       </c>
-      <c r="C20" t="n">
-        <v>2.664576180536996</v>
-      </c>
-      <c r="D20" t="n">
-        <v>2.664576180536996</v>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>['GalNAc(b1-4)']</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>['GalNAc(b1-?)']</t>
+        </is>
       </c>
       <c r="E20" t="n">
         <v>2.664576180536996</v>
       </c>
       <c r="F20" t="n">
-        <v>7.274647535246475</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0.477</v>
-      </c>
-      <c r="H20" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>['4C1']</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>['GalNAc(b1-4)']</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>['GalNAc(b1-?)']</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>lipid/free</t>
-        </is>
+        <v>1.519569766651961</v>
+      </c>
+      <c r="G20" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1412,43 +1030,24 @@
       <c r="B21" t="n">
         <v>0.1287552128551964</v>
       </c>
-      <c r="C21" t="n">
-        <v>2.671783269639034</v>
-      </c>
-      <c r="D21" t="n">
-        <v>2.671783269639034</v>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>['GalNAc(b1-4)']</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>['GalNAc(b1-?)']</t>
+        </is>
       </c>
       <c r="E21" t="n">
         <v>2.671783269639034</v>
       </c>
       <c r="F21" t="n">
-        <v>5.64785</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0.449</v>
-      </c>
-      <c r="H21" t="n">
-        <v>6.26</v>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>['4C1']</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>['GalNAc(b1-4)']</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>['GalNAc(b1-?)']</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>lipid/free</t>
-        </is>
+        <v>1.011218607205335</v>
+      </c>
+      <c r="G21" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
